--- a/Hornerstown S9000.xlsx
+++ b/Hornerstown S9000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wblankenship\Documents\GitHub\SPT-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92E83E-663B-4DFD-87CD-DE7F1726615D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE83FB5-3E80-4335-AE99-3196BB3D3064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F1E244-0055-49E9-BA99-E37AFD162BFC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>SPARE</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">67292 MVAR </t>
+  </si>
+  <si>
+    <t>SPARE&amp;</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9C7EB-CAA4-4DB0-AECE-FAF550B5EE12}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +751,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>

--- a/Hornerstown S9000.xlsx
+++ b/Hornerstown S9000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wblankenship\Documents\GitHub\SPT-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE83FB5-3E80-4335-AE99-3196BB3D3064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC66696D-07A4-471C-9D0A-844F7509BE32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F1E244-0055-49E9-BA99-E37AFD162BFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F1E244-0055-49E9-BA99-E37AFD162BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>SPARE</t>
   </si>
@@ -90,25 +90,97 @@
     <t>H60-3 LBSW</t>
   </si>
   <si>
-    <t>SPARE-SCAN1</t>
-  </si>
-  <si>
-    <t>BATTERY</t>
-  </si>
-  <si>
-    <t>67291 MW</t>
-  </si>
-  <si>
-    <t>67291 MVAR</t>
-  </si>
-  <si>
-    <t>67292 MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67292 MVAR </t>
-  </si>
-  <si>
-    <t>SPARE&amp;</t>
+    <t>BK 1 VCB</t>
+  </si>
+  <si>
+    <t>47417 VCB</t>
+  </si>
+  <si>
+    <t>BT VCB</t>
+  </si>
+  <si>
+    <t>BK 2 VCB</t>
+  </si>
+  <si>
+    <t>47418 VCB</t>
+  </si>
+  <si>
+    <t>47419 VCB</t>
+  </si>
+  <si>
+    <t>47416 VCB</t>
+  </si>
+  <si>
+    <t>47415 VCB</t>
+  </si>
+  <si>
+    <t>DIAL IN ACCESS</t>
+  </si>
+  <si>
+    <t>BK 1 CKT INT CI-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARE </t>
+  </si>
+  <si>
+    <t>I87 LBSW</t>
+  </si>
+  <si>
+    <t>NO 6 LBSW</t>
+  </si>
+  <si>
+    <t>A53 LBSW</t>
+  </si>
+  <si>
+    <t>BK 1 ALRM</t>
+  </si>
+  <si>
+    <t>BK 2 ALRM</t>
+  </si>
+  <si>
+    <t>CAP 1 VCB</t>
+  </si>
+  <si>
+    <t>DX RELAY FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSS OF POTENTIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK 1 CKT INT CI-2/SEL TRBL  </t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>BK 1 MW</t>
+  </si>
+  <si>
+    <t>BK 1 MVAR</t>
+  </si>
+  <si>
+    <t>BK 2 MW</t>
+  </si>
+  <si>
+    <t>BK 2 MVAR</t>
+  </si>
+  <si>
+    <t>47416 phase A amps</t>
+  </si>
+  <si>
+    <t>47416 phase B amps</t>
+  </si>
+  <si>
+    <t>47416 phase C amps</t>
+  </si>
+  <si>
+    <t>47417 phase A amps</t>
+  </si>
+  <si>
+    <t>47417 phase B amps</t>
+  </si>
+  <si>
+    <t>47417 phase C amps</t>
   </si>
 </sst>
 </file>
@@ -144,9 +216,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -466,21 +537,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9C7EB-CAA4-4DB0-AECE-FAF550B5EE12}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -489,16 +560,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -507,15 +577,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -524,15 +594,15 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -541,15 +611,15 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -558,15 +628,15 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -575,15 +645,15 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -592,15 +662,15 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -609,15 +679,15 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -625,13 +695,16 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -639,11 +712,14 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -653,8 +729,11 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -664,8 +743,11 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -676,9 +758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -687,9 +769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -698,9 +780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -711,7 +793,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -719,7 +801,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -727,7 +809,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -735,7 +817,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -743,7 +825,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -751,7 +833,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -759,7 +841,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -767,7 +849,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -775,7 +857,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -783,7 +865,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -791,7 +873,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -807,34 +889,34 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
@@ -843,9 +925,9 @@
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H35" t="s">
@@ -854,37 +936,37 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">

--- a/Hornerstown S9000.xlsx
+++ b/Hornerstown S9000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wblankenship\Documents\GitHub\SPT-Builder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machristiansen\Documents\GitHub\SPT-Builder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC66696D-07A4-471C-9D0A-844F7509BE32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E06593-1DBC-4B1C-8EB9-3B1332FF6069}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2F1E244-0055-49E9-BA99-E37AFD162BFC}"/>
+    <workbookView xWindow="12984" yWindow="2964" windowWidth="27648" windowHeight="14928" xr2:uid="{D2F1E244-0055-49E9-BA99-E37AFD162BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>SPARE</t>
   </si>
@@ -45,15 +45,6 @@
     <t>SPT COMM FAIL</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
     <t>OPEN</t>
   </si>
   <si>
@@ -181,6 +172,21 @@
   </si>
   <si>
     <t>47417 phase C amps</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Momentary Change Detect (MCD)</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Simple Status (SS)</t>
   </si>
 </sst>
 </file>
@@ -216,10 +222,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,449 +547,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9C7EB-CAA4-4DB0-AECE-FAF550B5EE12}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="B2:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>